--- a/bioSample/bioSample_3275.xlsx
+++ b/bioSample/bioSample_3275.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber </t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>
@@ -280,14 +280,14 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="49.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="49.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>

--- a/bioSample/bioSample_3275.xlsx
+++ b/bioSample/bioSample_3275.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_3275.xlsx
+++ b/bioSample/bioSample_3275.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="48">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">marker_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marker_2</t>
   </si>
   <si>
     <t xml:space="preserve">08.09.18</t>
@@ -175,6 +178,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -256,10 +260,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -267,9 +271,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.07"/>
@@ -307,28 +311,31 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>90</v>
@@ -339,25 +346,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>90</v>
@@ -368,25 +375,25 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>90</v>
@@ -397,25 +404,25 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>90</v>
@@ -426,25 +433,25 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>90</v>
@@ -455,25 +462,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>90</v>
@@ -484,25 +491,25 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>90</v>
@@ -511,30 +518,30 @@
         <v>4</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>90</v>
@@ -543,30 +550,30 @@
         <v>5</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>90</v>
@@ -577,25 +584,25 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>90</v>
@@ -606,25 +613,25 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>90</v>
@@ -635,25 +642,25 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>13</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>90</v>
@@ -662,30 +669,33 @@
         <v>5</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>90</v>
@@ -694,30 +704,33 @@
         <v>6</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>15</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>90</v>
@@ -726,30 +739,33 @@
         <v>7</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>90</v>
@@ -758,30 +774,33 @@
         <v>8</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>17</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>90</v>
@@ -790,30 +809,30 @@
         <v>4</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>18</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>90</v>
@@ -822,30 +841,30 @@
         <v>5</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>19</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>90</v>
@@ -854,30 +873,30 @@
         <v>6</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>90</v>
@@ -888,25 +907,25 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>21</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>90</v>
@@ -917,25 +936,25 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>22</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>90</v>
@@ -944,30 +963,30 @@
         <v>7</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>23</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>90</v>
@@ -976,30 +995,30 @@
         <v>8</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>24</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>90</v>
@@ -1008,30 +1027,30 @@
         <v>1</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>25</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>90</v>
@@ -1042,25 +1061,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>26</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>90</v>
@@ -1071,25 +1090,25 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>27</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>90</v>
@@ -1100,25 +1119,25 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>28</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>90</v>
@@ -1127,30 +1146,30 @@
         <v>4</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>29</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>90</v>
@@ -1159,30 +1178,30 @@
         <v>5</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>90</v>
@@ -1191,30 +1210,30 @@
         <v>6</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>31</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>90</v>
@@ -1222,28 +1241,31 @@
       <c r="I31" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="J31" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>32</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>90</v>
@@ -1254,25 +1276,25 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>33</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>90</v>
@@ -1283,25 +1305,25 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>34</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>90</v>

--- a/bioSample/bioSample_3275.xlsx
+++ b/bioSample/bioSample_3275.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">marker_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Marker_2</t>
+    <t xml:space="preserve">marker_2</t>
   </si>
   <si>
     <t xml:space="preserve">08.09.18</t>
@@ -263,7 +263,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/bioSample/bioSample_3275.xlsx
+++ b/bioSample/bioSample_3275.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2065D0-4155-E84C-BF5C-5D2465AD19B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F5A5B9-9CF6-B945-AF4C-2CD14FA0FA0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17700" yWindow="460" windowWidth="15900" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bioSample_3275" sheetId="1" r:id="rId1"/>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1634,6 +1634,9 @@
       <c r="H35">
         <v>90</v>
       </c>
+      <c r="I35">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
@@ -1660,6 +1663,9 @@
       <c r="H36">
         <v>90</v>
       </c>
+      <c r="I36">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
@@ -1685,6 +1691,9 @@
       </c>
       <c r="H37">
         <v>90</v>
+      </c>
+      <c r="I37">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/bioSample/bioSample_3275.xlsx
+++ b/bioSample/bioSample_3275.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F5A5B9-9CF6-B945-AF4C-2CD14FA0FA0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDFD295-B402-E246-AA8F-107A65C5A199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17700" yWindow="460" windowWidth="15900" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bioSample_3275" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="62">
   <si>
     <t>harvestDate</t>
   </si>
@@ -75,9 +75,6 @@
     <t>CNAG_00000</t>
   </si>
   <si>
-    <t>37C.CO2</t>
-  </si>
-  <si>
     <t>10.15.18</t>
   </si>
   <si>
@@ -187,6 +184,33 @@
   </si>
   <si>
     <t>CNAG_00156</t>
+  </si>
+  <si>
+    <t>DMEM.37C.CO2</t>
+  </si>
+  <si>
+    <t>TDY2205</t>
+  </si>
+  <si>
+    <t>CNAG_06871</t>
+  </si>
+  <si>
+    <t>TDY1452</t>
+  </si>
+  <si>
+    <t>CNAG_02566</t>
+  </si>
+  <si>
+    <t>TDY1118</t>
+  </si>
+  <si>
+    <t>CNAG_05222</t>
+  </si>
+  <si>
+    <t>TDY1174</t>
+  </si>
+  <si>
+    <t>CNAG_00871</t>
   </si>
 </sst>
 </file>
@@ -537,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -612,7 +636,7 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H2">
         <v>90</v>
@@ -623,7 +647,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -641,7 +665,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H3">
         <v>90</v>
@@ -652,7 +676,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -670,7 +694,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H4">
         <v>90</v>
@@ -681,7 +705,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -693,13 +717,13 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H5">
         <v>90</v>
@@ -710,7 +734,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -722,13 +746,13 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H6">
         <v>90</v>
@@ -739,7 +763,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -751,13 +775,13 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H7">
         <v>90</v>
@@ -768,7 +792,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -780,13 +804,13 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H8">
         <v>90</v>
@@ -795,12 +819,12 @@
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -812,13 +836,13 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H9">
         <v>90</v>
@@ -827,7 +851,7 @@
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -844,13 +868,13 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H10">
         <v>90</v>
@@ -861,7 +885,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -873,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H11">
         <v>90</v>
@@ -890,25 +914,25 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H12">
         <v>90</v>
@@ -931,13 +955,13 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H13">
         <v>90</v>
@@ -946,15 +970,15 @@
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -966,13 +990,13 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
         <v>29</v>
       </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H14">
         <v>90</v>
@@ -981,15 +1005,15 @@
         <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1001,13 +1025,13 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H15">
         <v>90</v>
@@ -1016,15 +1040,15 @@
         <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1036,13 +1060,13 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
         <v>29</v>
       </c>
-      <c r="F16" t="s">
-        <v>30</v>
-      </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H16">
         <v>90</v>
@@ -1051,10 +1075,10 @@
         <v>8</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
@@ -1071,13 +1095,13 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
         <v>32</v>
       </c>
-      <c r="F17" t="s">
-        <v>33</v>
-      </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H17">
         <v>90</v>
@@ -1086,12 +1110,12 @@
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -1103,13 +1127,13 @@
         <v>13</v>
       </c>
       <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H18">
         <v>90</v>
@@ -1118,12 +1142,12 @@
         <v>5</v>
       </c>
       <c r="J18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1135,13 +1159,13 @@
         <v>13</v>
       </c>
       <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
         <v>32</v>
       </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H19">
         <v>90</v>
@@ -1150,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -1167,13 +1191,13 @@
         <v>13</v>
       </c>
       <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
         <v>34</v>
       </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H20">
         <v>90</v>
@@ -1184,7 +1208,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -1196,13 +1220,13 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
         <v>34</v>
       </c>
-      <c r="F21" t="s">
-        <v>35</v>
-      </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H21">
         <v>90</v>
@@ -1213,7 +1237,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -1225,13 +1249,13 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
         <v>36</v>
       </c>
-      <c r="F22" t="s">
-        <v>37</v>
-      </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H22">
         <v>90</v>
@@ -1240,12 +1264,12 @@
         <v>7</v>
       </c>
       <c r="J22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -1257,13 +1281,13 @@
         <v>13</v>
       </c>
       <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
         <v>36</v>
       </c>
-      <c r="F23" t="s">
-        <v>37</v>
-      </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H23">
         <v>90</v>
@@ -1272,12 +1296,12 @@
         <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -1289,13 +1313,13 @@
         <v>13</v>
       </c>
       <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
         <v>38</v>
       </c>
-      <c r="F24" t="s">
-        <v>39</v>
-      </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H24">
         <v>90</v>
@@ -1304,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
@@ -1321,13 +1345,13 @@
         <v>13</v>
       </c>
       <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
         <v>40</v>
       </c>
-      <c r="F25" t="s">
-        <v>41</v>
-      </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H25">
         <v>90</v>
@@ -1338,7 +1362,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -1350,13 +1374,13 @@
         <v>13</v>
       </c>
       <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
         <v>40</v>
       </c>
-      <c r="F26" t="s">
-        <v>41</v>
-      </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H26">
         <v>90</v>
@@ -1367,7 +1391,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -1379,13 +1403,13 @@
         <v>13</v>
       </c>
       <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
         <v>40</v>
       </c>
-      <c r="F27" t="s">
-        <v>41</v>
-      </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H27">
         <v>90</v>
@@ -1408,13 +1432,13 @@
         <v>13</v>
       </c>
       <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
         <v>42</v>
       </c>
-      <c r="F28" t="s">
-        <v>43</v>
-      </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H28">
         <v>90</v>
@@ -1423,12 +1447,12 @@
         <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -1440,13 +1464,13 @@
         <v>13</v>
       </c>
       <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" t="s">
         <v>42</v>
       </c>
-      <c r="F29" t="s">
-        <v>43</v>
-      </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H29">
         <v>90</v>
@@ -1455,12 +1479,12 @@
         <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
@@ -1472,13 +1496,13 @@
         <v>13</v>
       </c>
       <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s">
         <v>42</v>
       </c>
-      <c r="F30" t="s">
-        <v>43</v>
-      </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H30">
         <v>90</v>
@@ -1487,12 +1511,12 @@
         <v>6</v>
       </c>
       <c r="J30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -1504,13 +1528,13 @@
         <v>13</v>
       </c>
       <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
         <v>44</v>
       </c>
-      <c r="F31" t="s">
-        <v>45</v>
-      </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H31">
         <v>90</v>
@@ -1519,12 +1543,12 @@
         <v>6</v>
       </c>
       <c r="J31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -1542,7 +1566,7 @@
         <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H32">
         <v>90</v>
@@ -1553,7 +1577,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -1565,13 +1589,13 @@
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
         <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H33">
         <v>90</v>
@@ -1582,7 +1606,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -1594,13 +1618,13 @@
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
         <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H34">
         <v>90</v>
@@ -1623,13 +1647,13 @@
         <v>13</v>
       </c>
       <c r="E35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" t="s">
         <v>48</v>
       </c>
-      <c r="F35" t="s">
-        <v>49</v>
-      </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H35">
         <v>90</v>
@@ -1640,7 +1664,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
@@ -1652,13 +1676,13 @@
         <v>13</v>
       </c>
       <c r="E36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" t="s">
         <v>50</v>
       </c>
-      <c r="F36" t="s">
-        <v>51</v>
-      </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H36">
         <v>90</v>
@@ -1669,7 +1693,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -1681,19 +1705,135 @@
         <v>13</v>
       </c>
       <c r="E37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" t="s">
         <v>52</v>
       </c>
-      <c r="F37" t="s">
-        <v>53</v>
-      </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H37">
         <v>90</v>
       </c>
       <c r="I37">
         <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38">
+        <v>90</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39">
+        <v>90</v>
+      </c>
+      <c r="I39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40">
+        <v>90</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41">
+        <v>90</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/bioSample/bioSample_3275.xlsx
+++ b/bioSample/bioSample_3275.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDFD295-B402-E246-AA8F-107A65C5A199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B778B5A8-2E25-F547-82DC-460422B70FCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bioSample_3275" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -569,16 +569,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="8" width="9.1640625" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="1025" width="11.5"/>
+    <col min="1" max="11" width="31.33203125" customWidth="1"/>
+    <col min="12" max="1025" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">

--- a/bioSample/bioSample_3275.xlsx
+++ b/bioSample/bioSample_3275.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A22228-0D74-5545-AB29-F200C2F80E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2286EE34-5168-DB44-820D-864EBC4A7EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22320" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13280" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="68">
   <si>
     <t>harvestDate</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>CNAG_00871</t>
-  </si>
-  <si>
-    <t>NAY</t>
   </si>
 </sst>
 </file>
@@ -592,12 +589,13 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:N1048576"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="12" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="12" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -1408,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="M20" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">

--- a/bioSample/bioSample_3275.xlsx
+++ b/bioSample/bioSample_3275.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2286EE34-5168-DB44-820D-864EBC4A7EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75A80B7-4663-354F-9C3B-843C6026B693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13280" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20160" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="68">
   <si>
     <t>harvestDate</t>
   </si>
@@ -242,6 +242,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -589,7 +590,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -784,6 +785,9 @@
       <c r="L5">
         <v>5</v>
       </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -822,6 +826,9 @@
       <c r="L6">
         <v>6</v>
       </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1610,6 +1617,9 @@
       <c r="L25">
         <v>4</v>
       </c>
+      <c r="M25" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1648,6 +1658,9 @@
       <c r="L26">
         <v>5</v>
       </c>
+      <c r="M26" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1685,6 +1698,9 @@
       </c>
       <c r="L27">
         <v>6</v>
+      </c>
+      <c r="M27" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">

--- a/bioSample/bioSample_3275.xlsx
+++ b/bioSample/bioSample_3275.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75A80B7-4663-354F-9C3B-843C6026B693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747F9CB9-4111-F144-B532-E4031ACEBD04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20160" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16760" yWindow="460" windowWidth="16300" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="67">
   <si>
     <t>harvestDate</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>marker_1</t>
-  </si>
-  <si>
-    <t>marker_2</t>
   </si>
   <si>
     <t>08.09.18</t>
@@ -590,7 +587,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -639,37 +636,35 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2">
         <v>90</v>
@@ -680,31 +675,31 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>90</v>
@@ -715,31 +710,31 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4">
         <v>90</v>
@@ -750,34 +745,34 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>90</v>
@@ -786,39 +781,39 @@
         <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>90</v>
@@ -827,39 +822,39 @@
         <v>6</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
         <v>90</v>
@@ -868,39 +863,39 @@
         <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8">
         <v>90</v>
@@ -909,39 +904,39 @@
         <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
         <v>90</v>
@@ -950,39 +945,39 @@
         <v>5</v>
       </c>
       <c r="M9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
         <v>90</v>
@@ -991,39 +986,39 @@
         <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11">
         <v>90</v>
@@ -1032,39 +1027,39 @@
         <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12">
         <v>90</v>
@@ -1073,39 +1068,39 @@
         <v>10</v>
       </c>
       <c r="M12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
         <v>35</v>
       </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13">
         <v>90</v>
@@ -1114,42 +1109,39 @@
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
         <v>35</v>
       </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14">
         <v>90</v>
@@ -1158,42 +1150,39 @@
         <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
         <v>35</v>
       </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15">
         <v>90</v>
@@ -1202,42 +1191,39 @@
         <v>7</v>
       </c>
       <c r="M15" t="s">
-        <v>37</v>
-      </c>
-      <c r="N15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16">
         <v>90</v>
@@ -1246,42 +1232,39 @@
         <v>8</v>
       </c>
       <c r="M16" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
-        <v>39</v>
-      </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17">
         <v>90</v>
@@ -1290,39 +1273,39 @@
         <v>4</v>
       </c>
       <c r="M17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
         <v>38</v>
       </c>
-      <c r="F18" t="s">
-        <v>39</v>
-      </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K18">
         <v>90</v>
@@ -1331,39 +1314,39 @@
         <v>5</v>
       </c>
       <c r="M18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
         <v>38</v>
       </c>
-      <c r="F19" t="s">
-        <v>39</v>
-      </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K19">
         <v>90</v>
@@ -1372,39 +1355,39 @@
         <v>6</v>
       </c>
       <c r="M19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
         <v>40</v>
       </c>
-      <c r="F20" t="s">
-        <v>41</v>
-      </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K20">
         <v>90</v>
@@ -1413,39 +1396,39 @@
         <v>4</v>
       </c>
       <c r="M20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
         <v>40</v>
       </c>
-      <c r="F21" t="s">
-        <v>41</v>
-      </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21">
         <v>90</v>
@@ -1454,39 +1437,39 @@
         <v>5</v>
       </c>
       <c r="M21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
         <v>42</v>
       </c>
-      <c r="F22" t="s">
-        <v>43</v>
-      </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K22">
         <v>90</v>
@@ -1495,39 +1478,39 @@
         <v>7</v>
       </c>
       <c r="M22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
         <v>42</v>
       </c>
-      <c r="F23" t="s">
-        <v>43</v>
-      </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K23">
         <v>90</v>
@@ -1536,39 +1519,39 @@
         <v>8</v>
       </c>
       <c r="M23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
         <v>44</v>
       </c>
-      <c r="F24" t="s">
-        <v>45</v>
-      </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K24">
         <v>90</v>
@@ -1577,39 +1560,39 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s">
         <v>46</v>
       </c>
-      <c r="F25" t="s">
-        <v>47</v>
-      </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K25">
         <v>90</v>
@@ -1618,39 +1601,39 @@
         <v>4</v>
       </c>
       <c r="M25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
         <v>46</v>
       </c>
-      <c r="F26" t="s">
-        <v>47</v>
-      </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K26">
         <v>90</v>
@@ -1659,39 +1642,39 @@
         <v>5</v>
       </c>
       <c r="M26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27">
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" t="s">
         <v>46</v>
       </c>
-      <c r="F27" t="s">
-        <v>47</v>
-      </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K27">
         <v>90</v>
@@ -1700,39 +1683,39 @@
         <v>6</v>
       </c>
       <c r="M27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
         <v>48</v>
       </c>
-      <c r="F28" t="s">
-        <v>49</v>
-      </c>
       <c r="G28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K28">
         <v>90</v>
@@ -1741,39 +1724,39 @@
         <v>4</v>
       </c>
       <c r="M28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" t="s">
         <v>48</v>
       </c>
-      <c r="F29" t="s">
-        <v>49</v>
-      </c>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K29">
         <v>90</v>
@@ -1782,39 +1765,39 @@
         <v>5</v>
       </c>
       <c r="M29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30">
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" t="s">
         <v>48</v>
       </c>
-      <c r="F30" t="s">
-        <v>49</v>
-      </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K30">
         <v>90</v>
@@ -1823,39 +1806,39 @@
         <v>6</v>
       </c>
       <c r="M30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31">
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" t="s">
         <v>50</v>
       </c>
-      <c r="F31" t="s">
-        <v>51</v>
-      </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K31">
         <v>90</v>
@@ -1864,36 +1847,36 @@
         <v>6</v>
       </c>
       <c r="M31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32">
         <v>32</v>
       </c>
       <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
         <v>16</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>17</v>
       </c>
-      <c r="F32" t="s">
-        <v>18</v>
-      </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K32">
         <v>90</v>
@@ -1904,31 +1887,31 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33">
         <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K33">
         <v>90</v>
@@ -1939,31 +1922,31 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34">
         <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K34">
         <v>90</v>
@@ -1974,34 +1957,34 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35">
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" t="s">
         <v>54</v>
       </c>
-      <c r="F35" t="s">
-        <v>55</v>
-      </c>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K35">
         <v>90</v>
@@ -2010,39 +1993,39 @@
         <v>8</v>
       </c>
       <c r="M35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36">
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" t="s">
         <v>56</v>
       </c>
-      <c r="F36" t="s">
-        <v>57</v>
-      </c>
       <c r="G36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K36">
         <v>90</v>
@@ -2051,39 +2034,39 @@
         <v>7</v>
       </c>
       <c r="M36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37">
         <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" t="s">
         <v>58</v>
       </c>
-      <c r="F37" t="s">
-        <v>59</v>
-      </c>
       <c r="G37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K37">
         <v>90</v>
@@ -2092,39 +2075,39 @@
         <v>7</v>
       </c>
       <c r="M37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38">
         <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" t="s">
         <v>60</v>
       </c>
-      <c r="F38" t="s">
-        <v>61</v>
-      </c>
       <c r="G38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K38">
         <v>90</v>
@@ -2133,39 +2116,39 @@
         <v>5</v>
       </c>
       <c r="M38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39">
         <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" t="s">
         <v>62</v>
       </c>
-      <c r="F39" t="s">
-        <v>63</v>
-      </c>
       <c r="G39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K39">
         <v>90</v>
@@ -2174,39 +2157,39 @@
         <v>13</v>
       </c>
       <c r="M39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40">
         <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" t="s">
         <v>64</v>
       </c>
-      <c r="F40" t="s">
-        <v>65</v>
-      </c>
       <c r="G40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K40">
         <v>90</v>
@@ -2215,39 +2198,39 @@
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41">
         <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" t="s">
         <v>66</v>
       </c>
-      <c r="F41" t="s">
-        <v>67</v>
-      </c>
       <c r="G41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K41">
         <v>90</v>
@@ -2256,7 +2239,7 @@
         <v>10</v>
       </c>
       <c r="M41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
